--- a/dane/Dane_TSP_127.xlsx
+++ b/dane/Dane_TSP_127.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dr\Desktop\zajęcia\2021-22\IO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/afe6526418c37a8e/Pulpit/rep/ComputationalInteligence/dane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757CDF73-C17B-4FA4-8741-F6D8F452450C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{757CDF73-C17B-4FA4-8741-F6D8F452450C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7562F10C-8C2E-4E52-82CE-1349BE03170D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{BC36EEED-CC71-4C41-A783-639D67A6D642}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{BC36EEED-CC71-4C41-A783-639D67A6D642}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -84,10 +84,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -125,7 +129,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -231,7 +235,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -373,7 +377,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -383,11 +387,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCD9018-80BB-4655-91FE-4E3E8B499540}">
   <dimension ref="A1:DX128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="CD88" zoomScale="35" workbookViewId="0">
+      <selection activeCell="EB129" sqref="EB2:EC129"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:128" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>1</v>
       </c>
@@ -770,7 +776,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1156,7 +1162,7 @@
         <v>6612</v>
       </c>
     </row>
-    <row r="3" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1542,7 +1548,7 @@
         <v>6165.4845713860968</v>
       </c>
     </row>
-    <row r="4" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1928,7 +1934,7 @@
         <v>8034.203880908176</v>
       </c>
     </row>
-    <row r="5" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2314,7 +2320,7 @@
         <v>7803.1019473027518</v>
       </c>
     </row>
-    <row r="6" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2700,7 +2706,7 @@
         <v>6471.0951159753477</v>
       </c>
     </row>
-    <row r="7" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3086,7 +3092,7 @@
         <v>7548.0264970388116</v>
       </c>
     </row>
-    <row r="8" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3472,7 +3478,7 @@
         <v>6963.8655931888861</v>
       </c>
     </row>
-    <row r="9" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3858,7 +3864,7 @@
         <v>8380.9498268394382</v>
       </c>
     </row>
-    <row r="10" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4244,7 +4250,7 @@
         <v>8004.8405355759587</v>
       </c>
     </row>
-    <row r="11" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4630,7 +4636,7 @@
         <v>7481.7751904210554</v>
       </c>
     </row>
-    <row r="12" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5016,7 +5022,7 @@
         <v>7888</v>
       </c>
     </row>
-    <row r="13" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5402,7 +5408,7 @@
         <v>6693.9136534616282</v>
       </c>
     </row>
-    <row r="14" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5788,7 +5794,7 @@
         <v>6892.0011607660081</v>
       </c>
     </row>
-    <row r="15" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6174,7 +6180,7 @@
         <v>6316.4103729887593</v>
       </c>
     </row>
-    <row r="16" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6560,7 +6566,7 @@
         <v>7322.715343368196</v>
       </c>
     </row>
-    <row r="17" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6946,7 +6952,7 @@
         <v>6381.054458316431</v>
       </c>
     </row>
-    <row r="18" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7332,7 +7338,7 @@
         <v>7726.8539522887322</v>
       </c>
     </row>
-    <row r="19" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7718,7 +7724,7 @@
         <v>8258.8415652559888</v>
       </c>
     </row>
-    <row r="20" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8104,7 +8110,7 @@
         <v>8045.0829703614618</v>
       </c>
     </row>
-    <row r="21" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8490,7 +8496,7 @@
         <v>7468.2742317084203</v>
       </c>
     </row>
-    <row r="22" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8876,7 +8882,7 @@
         <v>7841.8059144561848</v>
       </c>
     </row>
-    <row r="23" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9262,7 +9268,7 @@
         <v>7814.3027839980696</v>
       </c>
     </row>
-    <row r="24" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9648,7 +9654,7 @@
         <v>7909.2947852510842</v>
       </c>
     </row>
-    <row r="25" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10034,7 +10040,7 @@
         <v>7785.8384262711234</v>
       </c>
     </row>
-    <row r="26" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10420,7 +10426,7 @@
         <v>6028.652917526435</v>
       </c>
     </row>
-    <row r="27" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10806,7 +10812,7 @@
         <v>6055.3777751681191</v>
       </c>
     </row>
-    <row r="28" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11192,7 +11198,7 @@
         <v>6501.1765089097526</v>
       </c>
     </row>
-    <row r="29" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11578,7 +11584,7 @@
         <v>5502.3631286929804</v>
       </c>
     </row>
-    <row r="30" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11964,7 +11970,7 @@
         <v>6177.4765074421784</v>
       </c>
     </row>
-    <row r="31" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -12350,7 +12356,7 @@
         <v>6052.0436217859497</v>
       </c>
     </row>
-    <row r="32" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -12736,7 +12742,7 @@
         <v>6695.9235360030807</v>
       </c>
     </row>
-    <row r="33" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -13122,7 +13128,7 @@
         <v>6380</v>
       </c>
     </row>
-    <row r="34" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -13508,7 +13514,7 @@
         <v>5889.7850555007526</v>
       </c>
     </row>
-    <row r="35" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -13894,7 +13900,7 @@
         <v>5373.6929573618181</v>
       </c>
     </row>
-    <row r="36" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -14280,7 +14286,7 @@
         <v>5453.2339029240256</v>
       </c>
     </row>
-    <row r="37" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -14666,7 +14672,7 @@
         <v>5702.9073287227802</v>
       </c>
     </row>
-    <row r="38" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -15052,7 +15058,7 @@
         <v>5810.4306208748421</v>
       </c>
     </row>
-    <row r="39" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -15438,7 +15444,7 @@
         <v>5540.1386264244329</v>
       </c>
     </row>
-    <row r="40" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -15824,7 +15830,7 @@
         <v>5322.1123625868704</v>
       </c>
     </row>
-    <row r="41" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -16210,7 +16216,7 @@
         <v>5021.6077106839002</v>
       </c>
     </row>
-    <row r="42" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -16596,7 +16602,7 @@
         <v>5971.4654817724604</v>
       </c>
     </row>
-    <row r="43" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -16982,7 +16988,7 @@
         <v>4955.5221722841679</v>
       </c>
     </row>
-    <row r="44" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -17368,7 +17374,7 @@
         <v>5437.1713233996961</v>
       </c>
     </row>
-    <row r="45" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -17754,7 +17760,7 @@
         <v>4561.0279543102997</v>
       </c>
     </row>
-    <row r="46" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -18140,7 +18146,7 @@
         <v>4391.1784295334664</v>
       </c>
     </row>
-    <row r="47" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -18526,7 +18532,7 @@
         <v>5362.4128897353658</v>
       </c>
     </row>
-    <row r="48" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -18912,7 +18918,7 @@
         <v>5870.333551000318</v>
       </c>
     </row>
-    <row r="49" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -19298,7 +19304,7 @@
         <v>5053.6608513037354</v>
       </c>
     </row>
-    <row r="50" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -19684,7 +19690,7 @@
         <v>5534.0632450307248</v>
       </c>
     </row>
-    <row r="51" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -20070,7 +20076,7 @@
         <v>6579.3580233940756</v>
       </c>
     </row>
-    <row r="52" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -20456,7 +20462,7 @@
         <v>5971.4654817724604</v>
       </c>
     </row>
-    <row r="53" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -20842,7 +20848,7 @@
         <v>6823.324702811673</v>
       </c>
     </row>
-    <row r="54" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -21228,7 +21234,7 @@
         <v>5411.1233584164393</v>
       </c>
     </row>
-    <row r="55" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -21614,7 +21620,7 @@
         <v>5148.6231169119383</v>
       </c>
     </row>
-    <row r="56" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -22000,7 +22006,7 @@
         <v>7056.0045351459348</v>
       </c>
     </row>
-    <row r="57" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -22386,7 +22392,7 @@
         <v>6200.3057989102444</v>
       </c>
     </row>
-    <row r="58" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -22772,7 +22778,7 @@
         <v>5574.0383924045591</v>
       </c>
     </row>
-    <row r="59" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
@@ -23158,7 +23164,7 @@
         <v>8669.011477671489</v>
       </c>
     </row>
-    <row r="60" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -23544,7 +23550,7 @@
         <v>9777.7747979793439</v>
       </c>
     </row>
-    <row r="61" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -23930,7 +23936,7 @@
         <v>9199.9043473288348</v>
       </c>
     </row>
-    <row r="62" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -24316,7 +24322,7 @@
         <v>9122.0559086205994</v>
       </c>
     </row>
-    <row r="63" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -24702,7 +24708,7 @@
         <v>9338.5403570365324</v>
       </c>
     </row>
-    <row r="64" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -25088,7 +25094,7 @@
         <v>14226.44354714136</v>
       </c>
     </row>
-    <row r="65" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
@@ -25474,7 +25480,7 @@
         <v>8694.5849814697885</v>
       </c>
     </row>
-    <row r="66" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -25860,7 +25866,7 @@
         <v>10037.854750891751</v>
       </c>
     </row>
-    <row r="67" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -26246,7 +26252,7 @@
         <v>7834.9391829164824</v>
       </c>
     </row>
-    <row r="68" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -26632,7 +26638,7 @@
         <v>9199.9043473288348</v>
       </c>
     </row>
-    <row r="69" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -27018,7 +27024,7 @@
         <v>9827.8770851084628</v>
       </c>
     </row>
-    <row r="70" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -27404,7 +27410,7 @@
         <v>10933.57690785591</v>
       </c>
     </row>
-    <row r="71" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -27790,7 +27796,7 @@
         <v>10720.433573321559</v>
       </c>
     </row>
-    <row r="72" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -28176,7 +28182,7 @@
         <v>10565.55611409073</v>
       </c>
     </row>
-    <row r="73" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
@@ -28562,7 +28568,7 @@
         <v>8288.116794543861</v>
       </c>
     </row>
-    <row r="74" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -28948,7 +28954,7 @@
         <v>9154.4507208242703</v>
       </c>
     </row>
-    <row r="75" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -29334,7 +29340,7 @@
         <v>8964.3310960718081</v>
       </c>
     </row>
-    <row r="76" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -29720,7 +29726,7 @@
         <v>10060.617873669589</v>
       </c>
     </row>
-    <row r="77" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -30106,7 +30112,7 @@
         <v>9060.632207522829</v>
       </c>
     </row>
-    <row r="78" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
@@ -30492,7 +30498,7 @@
         <v>8329.4139049515361</v>
       </c>
     </row>
-    <row r="79" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
@@ -30878,7 +30884,7 @@
         <v>8487.0470718619199</v>
       </c>
     </row>
-    <row r="80" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
@@ -31264,7 +31270,7 @@
         <v>7633.1173186320148</v>
       </c>
     </row>
-    <row r="81" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
@@ -31650,7 +31656,7 @@
         <v>7483.5734779582408</v>
       </c>
     </row>
-    <row r="82" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
@@ -32036,7 +32042,7 @@
         <v>9453.1103875920126</v>
       </c>
     </row>
-    <row r="83" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -32422,7 +32428,7 @@
         <v>10561.734706003561</v>
       </c>
     </row>
-    <row r="84" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
@@ -32808,7 +32814,7 @@
         <v>10279.589875087429</v>
       </c>
     </row>
-    <row r="85" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -33194,7 +33200,7 @@
         <v>9341.4217333337438</v>
       </c>
     </row>
-    <row r="86" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
@@ -33580,7 +33586,7 @@
         <v>13829.321313788319</v>
       </c>
     </row>
-    <row r="87" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
@@ -33966,7 +33972,7 @@
         <v>13961.02288516139</v>
       </c>
     </row>
-    <row r="88" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
@@ -34352,7 +34358,7 @@
         <v>13883.218070750019</v>
       </c>
     </row>
-    <row r="89" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
@@ -34738,7 +34744,7 @@
         <v>14037.91722443184</v>
       </c>
     </row>
-    <row r="90" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
@@ -35124,7 +35130,7 @@
         <v>11530.77343459666</v>
       </c>
     </row>
-    <row r="91" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
@@ -35510,7 +35516,7 @@
         <v>8853.3157630347741</v>
       </c>
     </row>
-    <row r="92" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
@@ -35896,7 +35902,7 @@
         <v>9039.8168123032228</v>
       </c>
     </row>
-    <row r="93" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
@@ -36282,7 +36288,7 @@
         <v>11896.08137161141</v>
       </c>
     </row>
-    <row r="94" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
@@ -36668,7 +36674,7 @@
         <v>1913.121010286595</v>
       </c>
     </row>
-    <row r="95" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
@@ -37054,7 +37060,7 @@
         <v>4432.3537764939292</v>
       </c>
     </row>
-    <row r="96" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>
@@ -37440,7 +37446,7 @@
         <v>2606.7757862923308</v>
       </c>
     </row>
-    <row r="97" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
@@ -37826,7 +37832,7 @@
         <v>12859.791600177659</v>
       </c>
     </row>
-    <row r="98" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
@@ -38212,7 +38218,7 @@
         <v>4360.4275019773004</v>
       </c>
     </row>
-    <row r="99" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
@@ -38598,7 +38604,7 @@
         <v>8255.5823537773522</v>
       </c>
     </row>
-    <row r="100" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
@@ -38984,7 +38990,7 @@
         <v>12664.73529135134</v>
       </c>
     </row>
-    <row r="101" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
@@ -39370,7 +39376,7 @@
         <v>8167.0920161340173</v>
       </c>
     </row>
-    <row r="102" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>101</v>
       </c>
@@ -39756,7 +39762,7 @@
         <v>12792.123201407971</v>
       </c>
     </row>
-    <row r="103" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>102</v>
       </c>
@@ -40142,7 +40148,7 @@
         <v>13134.150905178451</v>
       </c>
     </row>
-    <row r="104" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>103</v>
       </c>
@@ -40528,7 +40534,7 @@
         <v>4119.2251698590117</v>
       </c>
     </row>
-    <row r="105" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>104</v>
       </c>
@@ -40914,7 +40920,7 @@
         <v>13425.966482901709</v>
       </c>
     </row>
-    <row r="106" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>105</v>
       </c>
@@ -41300,7 +41306,7 @@
         <v>7192.9354230383578</v>
       </c>
     </row>
-    <row r="107" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>106</v>
       </c>
@@ -41686,7 +41692,7 @@
         <v>7432.1517745535848</v>
       </c>
     </row>
-    <row r="108" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>107</v>
       </c>
@@ -42072,7 +42078,7 @@
         <v>4877.5206816578439</v>
       </c>
     </row>
-    <row r="109" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>108</v>
       </c>
@@ -42458,7 +42464,7 @@
         <v>7562.2747900350723</v>
       </c>
     </row>
-    <row r="110" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>109</v>
       </c>
@@ -42844,7 +42850,7 @@
         <v>12720.39307568756</v>
       </c>
     </row>
-    <row r="111" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>110</v>
       </c>
@@ -43230,7 +43236,7 @@
         <v>12374.541607671779</v>
       </c>
     </row>
-    <row r="112" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>111</v>
       </c>
@@ -43616,7 +43622,7 @@
         <v>5194.1582571192421</v>
       </c>
     </row>
-    <row r="113" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>112</v>
       </c>
@@ -44002,7 +44008,7 @@
         <v>5828.9278602501163</v>
       </c>
     </row>
-    <row r="114" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>113</v>
       </c>
@@ -44388,7 +44394,7 @@
         <v>9219.6286259263179</v>
       </c>
     </row>
-    <row r="115" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>114</v>
       </c>
@@ -44774,7 +44780,7 @@
         <v>7424</v>
       </c>
     </row>
-    <row r="116" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>115</v>
       </c>
@@ -45160,7 +45166,7 @@
         <v>7037.8644488225264</v>
       </c>
     </row>
-    <row r="117" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>116</v>
       </c>
@@ -45546,7 +45552,7 @@
         <v>8959.075845197427</v>
       </c>
     </row>
-    <row r="118" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>117</v>
       </c>
@@ -45932,7 +45938,7 @@
         <v>8715.4529429054928</v>
       </c>
     </row>
-    <row r="119" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>118</v>
       </c>
@@ -46318,7 +46324,7 @@
         <v>5276.4063528124898</v>
       </c>
     </row>
-    <row r="120" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>119</v>
       </c>
@@ -46704,7 +46710,7 @@
         <v>14227.8622427967</v>
       </c>
     </row>
-    <row r="121" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>120</v>
       </c>
@@ -47090,7 +47096,7 @@
         <v>7215.3491945989699</v>
       </c>
     </row>
-    <row r="122" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>121</v>
       </c>
@@ -47476,7 +47482,7 @@
         <v>6077.5587204073972</v>
       </c>
     </row>
-    <row r="123" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>122</v>
       </c>
@@ -47862,7 +47868,7 @@
         <v>5694.6430968059794</v>
       </c>
     </row>
-    <row r="124" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>123</v>
       </c>
@@ -48248,7 +48254,7 @@
         <v>3285.0741239734612</v>
       </c>
     </row>
-    <row r="125" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>124</v>
       </c>
@@ -48634,7 +48640,7 @@
         <v>6679.8275426840173</v>
       </c>
     </row>
-    <row r="126" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>125</v>
       </c>
@@ -49020,7 +49026,7 @@
         <v>10968.59589920241</v>
       </c>
     </row>
-    <row r="127" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>126</v>
       </c>
@@ -49406,7 +49412,7 @@
         <v>10006.97516735202</v>
       </c>
     </row>
-    <row r="128" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:128" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>127</v>
       </c>
@@ -49927,13 +49933,34 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0205D518-46E6-4AE8-BBC4-0D99AE32C890}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0205D518-46E6-4AE8-BBC4-0D99AE32C890}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8AC6C01-9B11-4223-B47C-C16D1B075786}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8AC6C01-9B11-4223-B47C-C16D1B075786}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06DF0B2F-0E18-48EC-AB9D-B58409EEB653}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06DF0B2F-0E18-48EC-AB9D-B58409EEB653}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>